--- a/examples/XlsxPeasant_02_colorsTest.xlsx
+++ b/examples/XlsxPeasant_02_colorsTest.xlsx
@@ -1,42 +1,29 @@
 
-<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
-<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <Application>Microsoft Excel</Application>
-  <DocSecurity>0</DocSecurity>
-  <ScaleCrop>false</ScaleCrop>
-  <HeadingPairs>
-    <vt:vector size="2" baseType="variant">
-      <vt:variant>
-        <vt:lpstr>Arkusze</vt:lpstr>
-      </vt:variant>
-      <vt:variant>
-        <vt:i4>1</vt:i4>
-      </vt:variant>
-    </vt:vector>
-  </HeadingPairs>
-  <TitlesOfParts>
-    <vt:vector size="1" baseType="lpstr">
-      <vt:lpstr>Colors Test</vt:lpstr>
-    </vt:vector>
-  </TitlesOfParts>
-  <Company/>
-  <LinksUpToDate>false</LinksUpToDate>
-  <SharedDoc>false</SharedDoc>
-  <HyperlinksChanged>false</HyperlinksChanged>
-  <AppVersion>16.0300</AppVersion>
-</Properties>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DA762AD-7C25-487E-83A6-EDAF663DE464}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Colors Test" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
-<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
-<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <dc:creator>Karol Nowakowski</dc:creator>
-  <cp:lastModifiedBy>Karol Nowakowski</cp:lastModifiedBy>
-  <dcterms:created xsi:type="dcterms:W3CDTF">2019-04-23T10:00:38Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2019-04-23T10:00:47Z</dcterms:modified>
-</cp:coreProperties>
-</file>
-
-<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>ALICEBLUE</t>
@@ -461,8 +448,11 @@
 </sst>
 </file>
 
-<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;" numFmtId="5"/>
+  </numFmts>
   <fonts count="140" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2297,282 +2287,282 @@
   <cellXfs count="278">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="2" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="3" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="4" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="5" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="6" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="7" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="8" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="2" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="3" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="4" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="5" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="6" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="7" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="8" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="9" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="10" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="11" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="12" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="13" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="14" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="15" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="9" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="10" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="11" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="12" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="13" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="14" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="15" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="16" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="17" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="18" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="19" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="20" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="21" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="16" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="17" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="18" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="19" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="20" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="21" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="22" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="23" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="24" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="25" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="26" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="27" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="28" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="22" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="23" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="24" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="25" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="26" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="27" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="28" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="29" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="30" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="31" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="32" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="33" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="34" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="35" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="29" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="30" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="31" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="32" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="33" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="34" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="35" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="36" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="37" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="38" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="39" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="40" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="41" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="42" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="36" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="37" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="38" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="39" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="40" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="41" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="42" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="43" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="44" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="45" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="46" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="47" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="48" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="49" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="43" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="44" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="45" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="46" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="47" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="48" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="49" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="50" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="51" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="52" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="53" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="54" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="55" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="56" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="50" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="51" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="52" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="53" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="54" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="55" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="56" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="57" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="58" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="59" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="60" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="61" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="62" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="63" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="57" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="58" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="59" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="60" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="61" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="62" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="63" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="64" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="65" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="66" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="67" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="68" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="69" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="70" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="64" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="65" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="66" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="67" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="68" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="69" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="70" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="71" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="72" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="73" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="74" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="75" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="76" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="77" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="71" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="72" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="73" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="74" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="75" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="76" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="77" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="78" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="79" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="80" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="81" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="82" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="83" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="78" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="79" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="80" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="81" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="82" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="83" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="84" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="85" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="86" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="87" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="88" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="89" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="90" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="84" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="85" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="86" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="87" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="88" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="89" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="90" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="91" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="92" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="93" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="94" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="95" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="96" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="97" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="91" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="92" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="93" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="94" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="95" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="96" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="97" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="98" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="99" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="100" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="101" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="102" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="103" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="104" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="98" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="99" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="100" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="101" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="102" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="103" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="104" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="105" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="106" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="107" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="108" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="109" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="110" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="111" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="105" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="106" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="107" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="108" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="109" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="110" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="111" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="112" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="113" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="114" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="115" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="116" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="117" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="118" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="112" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="113" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="114" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="115" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="116" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="117" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="118" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="119" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="120" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="121" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="122" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="123" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="124" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="125" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="119" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="120" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="121" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="122" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="123" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="124" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="125" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="126" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="127" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="128" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="129" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="130" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="131" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="132" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="126" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="127" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="128" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="129" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="130" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="131" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="132" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="133" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="134" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="135" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="136" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="137" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="138" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="139" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="133" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="134" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="135" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="136" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="137" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="138" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="139" numFmtId="5" xfId="0" applyFont="1"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="17" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="18" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="19" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="20" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="21" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="22" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="23" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="24" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="25" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="26" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="27" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="28" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="29" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="30" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="31" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="32" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="34" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="35" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="36" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="37" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="38" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="39" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="40" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="41" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="42" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="43" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="44" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="45" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="46" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="47" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="48" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="49" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="50" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="51" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="52" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="53" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="54" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="55" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="56" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="57" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="58" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="59" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="60" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="61" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="62" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="63" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="64" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="65" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="66" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="67" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="68" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="69" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="70" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="71" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="72" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="73" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="74" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="75" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="76" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="77" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="78" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="79" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="80" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="81" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="82" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="83" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="84" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="85" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="86" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="87" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="88" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="89" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="90" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="91" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="92" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="93" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="94" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="95" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="96" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="97" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="98" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="99" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="100" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="101" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="102" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="103" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="104" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="105" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="106" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="107" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="108" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="109" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="110" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="111" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="112" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="113" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="114" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="115" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="116" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="117" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="118" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="119" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="120" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="121" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="122" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="123" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="124" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="125" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="126" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="127" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="128" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="129" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="130" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="131" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="132" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="133" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="134" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="135" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="136" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="137" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="138" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="139" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2590,7 +2580,7 @@
 </styleSheet>
 </file>
 
-<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Pakiet Office">
@@ -2885,33 +2875,8 @@
 </a:theme>
 </file>
 
-<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knowakowski\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A31A1446-E08E-47BC-8584-29124A2247F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DA762AD-7C25-487E-83A6-EDAF663DE464}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Colors Test" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6406C7D2-6650-4A41-B82D-5F97A8339E63}">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CA345C-1A16-489E-991C-64BA775124BA}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_02_colorsTest.xlsx
+++ b/examples/XlsxPeasant_02_colorsTest.xlsx
@@ -2876,7 +2876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CA345C-1A16-489E-991C-64BA775124BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C3028B-8488-4E0A-8F35-06F259E1FCF7}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_02_colorsTest.xlsx
+++ b/examples/XlsxPeasant_02_colorsTest.xlsx
@@ -2876,7 +2876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C3028B-8488-4E0A-8F35-06F259E1FCF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4023864A-7593-40E0-A2A1-E13F779BA005}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_02_colorsTest.xlsx
+++ b/examples/XlsxPeasant_02_colorsTest.xlsx
@@ -2876,7 +2876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4023864A-7593-40E0-A2A1-E13F779BA005}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D92D889-0D02-4754-831F-602C2DCF1C6D}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_02_colorsTest.xlsx
+++ b/examples/XlsxPeasant_02_colorsTest.xlsx
@@ -2876,7 +2876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D92D889-0D02-4754-831F-602C2DCF1C6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663BDE1A-1464-4900-AF53-36E3325D318F}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_02_colorsTest.xlsx
+++ b/examples/XlsxPeasant_02_colorsTest.xlsx
@@ -2876,7 +2876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663BDE1A-1464-4900-AF53-36E3325D318F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40FDEFB-1CF7-40BD-97C7-79AB4888E6C6}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_02_colorsTest.xlsx
+++ b/examples/XlsxPeasant_02_colorsTest.xlsx
@@ -2876,7 +2876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40FDEFB-1CF7-40BD-97C7-79AB4888E6C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36728B22-2562-4B47-91A6-2E8E038F40AC}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
